--- a/Burndown.xlsx
+++ b/Burndown.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CowUser\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kainoa\Documents\Work\2017\IFB299\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8220"/>
   </bookViews>
   <sheets>
     <sheet name="Burn down chart" sheetId="2" r:id="rId1"/>
     <sheet name="Hours" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -406,7 +403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -496,74 +492,78 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn down chart'!$A$32:$A$53</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$A$32:$A$52</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$A$32:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -571,14 +571,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$B$32:$B$53</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$B$32:$B$53</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$B$32:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -631,74 +695,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn down chart'!$A$32:$A$53</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$A$32:$A$52</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$A$32:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -706,12 +774,79 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$C$32:$C$44</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$C$32:$C$52</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$C$32:$C$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,7 +909,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -900,7 +1034,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -975,7 +1108,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1093,7 +1225,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1183,10 +1314,17 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn down chart'!$B$3:$B$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$B$3:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1195,26 +1333,30 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$C$3:$C$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$C$3:$C$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1267,10 +1409,17 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn down chart'!$B$3:$B$7</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$B$3:$B$7</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$B$3:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1279,24 +1428,31 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$D$3:$D$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
               <c:f>'Burn down chart'!$D$3:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1354,7 +1510,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1475,7 +1630,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1550,7 +1704,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1671,7 +1824,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1761,95 +1913,78 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn down chart'!$A$66:$A$94</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$A$66:$A$86</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$A$66:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1857,14 +1992,78 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$B$66:$B$94</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$B$66:$B$86</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$B$66:$B$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1917,95 +2116,78 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Burn down chart'!$A$66:$A$94</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$A$66:$A$86</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$A$66:$A$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>17</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>16</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>10</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2013,12 +2195,79 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn down chart'!$C$66:$C$94</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Burn down chart'!$C$66:$C$86</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Burn down chart'!$C$66:$C$86</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="29"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2081,7 +2330,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2207,7 +2455,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2282,7 +2529,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4030,20 +4276,20 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="Chart 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4081,7 +4327,7 @@
         <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4105,21 +4351,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4140,161 +4386,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Burn down chart"/>
-      <sheetName val="Hours"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>Ideal Tasks Remaining</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65" t="str">
-            <v>Ideal Tasks Remaining</v>
-          </cell>
-          <cell r="C65" t="str">
-            <v>Actual Tasks Remaining</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>14</v>
-          </cell>
-          <cell r="B66">
-            <v>16</v>
-          </cell>
-          <cell r="C66">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>13</v>
-          </cell>
-          <cell r="C67">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>12</v>
-          </cell>
-          <cell r="C68">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>11</v>
-          </cell>
-          <cell r="C69">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>10</v>
-          </cell>
-          <cell r="C70">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>9</v>
-          </cell>
-          <cell r="C71">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>8</v>
-          </cell>
-          <cell r="C72">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>7</v>
-          </cell>
-          <cell r="C73">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>6</v>
-          </cell>
-          <cell r="C74">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>5</v>
-          </cell>
-          <cell r="C75">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>4</v>
-          </cell>
-          <cell r="C76">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>3</v>
-          </cell>
-          <cell r="C77">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>2</v>
-          </cell>
-          <cell r="C78">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>1</v>
-          </cell>
-          <cell r="C79">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>0</v>
-          </cell>
-          <cell r="B80">
-            <v>0</v>
-          </cell>
-          <cell r="C80">
-            <v>6</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4373,6 +4464,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4408,6 +4516,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4562,8 +4687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4598,33 +4723,32 @@
         <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>1</v>
       </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="C5" s="2">
         <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -4647,134 +4771,246 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2">
+        <v>31</v>
       </c>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B34" s="2">
+        <v>28</v>
+      </c>
+      <c r="C34" s="2">
+        <v>28</v>
       </c>
       <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B35" s="2">
+        <v>26</v>
+      </c>
+      <c r="C35" s="2">
+        <v>28</v>
       </c>
       <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B36" s="2">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
+        <v>28</v>
       </c>
       <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B37" s="2">
+        <v>22</v>
+      </c>
+      <c r="C37" s="2">
+        <v>26</v>
       </c>
       <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="B38" s="2">
+        <v>21</v>
+      </c>
+      <c r="C38" s="2">
+        <v>25</v>
       </c>
       <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20</v>
+      </c>
+      <c r="C39" s="2">
+        <v>23</v>
       </c>
       <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B40" s="2">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2">
+        <v>19</v>
       </c>
       <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B41" s="2">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2">
+        <v>18</v>
       </c>
       <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B42" s="2">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2">
+        <v>17</v>
       </c>
       <c r="D42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B43" s="2">
+        <v>16</v>
+      </c>
+      <c r="C43" s="2">
+        <v>17</v>
       </c>
       <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B44" s="2">
+        <v>14</v>
+      </c>
+      <c r="C44" s="2">
+        <v>17</v>
       </c>
       <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B45" s="2">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B46" s="2">
+        <v>10</v>
+      </c>
+      <c r="C46" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>6</v>
+      </c>
+      <c r="C48" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2">
         <v>4</v>
+      </c>
+      <c r="C49" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
         <v>0</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B52" s="2">
         <v>0</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -4797,171 +5033,264 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B66" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C66" s="2">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="B67" s="2">
+        <v>36</v>
+      </c>
+      <c r="C67" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B68" s="2">
+        <v>34</v>
+      </c>
+      <c r="C68" s="2">
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="B69" s="2">
+        <v>32</v>
+      </c>
+      <c r="C69" s="2">
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="B70" s="2">
+        <v>31</v>
+      </c>
+      <c r="C70" s="2">
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="B71" s="2">
+        <v>29</v>
+      </c>
+      <c r="C71" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="B72" s="2">
+        <v>27</v>
+      </c>
+      <c r="C72" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B73" s="2">
+        <v>26</v>
+      </c>
+      <c r="C73" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B74" s="2">
+        <v>24</v>
+      </c>
+      <c r="C74" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="B75" s="2">
+        <v>22</v>
+      </c>
+      <c r="C75" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="B76" s="2">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2">
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
-        <v>17</v>
+        <v>9</v>
+      </c>
+      <c r="B77" s="2">
+        <v>18</v>
+      </c>
+      <c r="C77" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
+        <v>8</v>
+      </c>
+      <c r="B78" s="2">
         <v>16</v>
+      </c>
+      <c r="C78" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B79" s="2">
+        <v>14</v>
+      </c>
+      <c r="C79" s="2">
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="B80" s="2">
+        <v>12</v>
+      </c>
+      <c r="C80" s="2">
+        <v>23</v>
       </c>
       <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>10</v>
+      </c>
+      <c r="C81" s="2">
+        <v>21</v>
       </c>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B82" s="2">
+        <v>8</v>
+      </c>
+      <c r="C82" s="2">
+        <v>19</v>
       </c>
       <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="B83" s="2">
+        <v>6</v>
+      </c>
+      <c r="C83" s="2">
+        <v>17</v>
       </c>
       <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B84" s="2">
+        <v>4</v>
+      </c>
+      <c r="C84" s="2">
+        <v>16</v>
       </c>
       <c r="D84" s="3"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2">
+        <v>15</v>
       </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="B86" s="2">
+        <v>0</v>
+      </c>
+      <c r="C86" s="2">
+        <v>13</v>
       </c>
       <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
-        <v>7</v>
-      </c>
       <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>6</v>
-      </c>
       <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
-        <v>5</v>
-      </c>
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
-        <v>4</v>
-      </c>
       <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>3</v>
-      </c>
       <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
-        <v>2</v>
-      </c>
       <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
-        <v>1</v>
-      </c>
       <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>0</v>
-      </c>
-      <c r="B94" s="2">
-        <v>0</v>
-      </c>
       <c r="D94" s="3"/>
     </row>
     <row r="112" spans="4:4" x14ac:dyDescent="0.2">
